--- a/save/Ne_Te_diag.xlsx
+++ b/save/Ne_Te_diag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE9158B-F961-8A40-8416-E013B10E4D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19028460-B112-7F49-99BD-42F3981BCEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="2740" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{05C49CE1-5A86-794A-B1B0-E151DEAAF1B6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="41">
   <si>
     <t>ion</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>logTe_low_err</t>
+  </si>
+  <si>
+    <t>189/191</t>
+  </si>
+  <si>
+    <t>191/197</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E708124-F461-764A-A49E-53226974A97A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,28 +660,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>8.48</v>
+        <v>8.52</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="H6">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,42 +698,42 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>8.52</v>
+        <v>8.48</v>
       </c>
       <c r="G7">
         <v>0.3</v>
       </c>
       <c r="H7">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>8.9</v>
+        <v>8.52</v>
       </c>
       <c r="G8">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="H8">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,13 +750,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>8.64</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="H9">
         <v>0.34</v>
@@ -758,28 +764,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>9.02</v>
+        <v>8.64</v>
       </c>
       <c r="G10">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="H10">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>8.7799999999999994</v>
+        <v>9.02</v>
       </c>
       <c r="G11">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H11">
         <v>0.06</v>
@@ -813,25 +819,25 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>8.7200000000000006</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G12">
+        <v>0.08</v>
+      </c>
+      <c r="H12">
         <v>0.06</v>
-      </c>
-      <c r="H12">
-        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -848,15 +854,41 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="G13">
+        <v>0.06</v>
+      </c>
+      <c r="H13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>8.7799999999999994</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.08</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.06</v>
       </c>
     </row>
@@ -867,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DAF197-99C3-9044-83A0-FFCA6B7D638D}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,28 +1058,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="G6">
         <v>0.01</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -1055,25 +1087,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>5.93</v>
+        <v>5.78</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H7">
         <v>0.01</v>
@@ -1084,28 +1116,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>6.04</v>
+        <v>6.28</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I8">
         <v>8.5</v>
@@ -1113,28 +1145,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>5.96</v>
+        <v>6.13</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I9">
         <v>8.5</v>
@@ -1142,28 +1174,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -1171,25 +1203,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0.01</v>
@@ -1200,28 +1232,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>6.3</v>
+        <v>6.04</v>
       </c>
       <c r="G12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>8.5</v>
@@ -1229,25 +1261,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>5.91</v>
+        <v>5.96</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0.01</v>
@@ -1264,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1273,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>6.15</v>
+        <v>6.35</v>
       </c>
       <c r="G14">
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -1293,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1302,13 +1334,13 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -1322,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1331,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="G16">
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I16">
         <v>8.5</v>
@@ -1351,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1360,13 +1392,13 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>5.86</v>
+        <v>5.91</v>
       </c>
       <c r="G17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H17">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <v>8.5</v>
@@ -1380,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1389,13 +1421,13 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="G18">
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -1409,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1418,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="G19">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H19">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -1438,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1447,13 +1479,13 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="G20">
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I20">
         <v>8.5</v>
@@ -1467,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1476,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="G21">
         <v>0.02</v>
@@ -1493,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1505,13 +1537,13 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>6.13</v>
+        <v>6.19</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H22">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -1522,10 +1554,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1534,13 +1566,13 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="G23">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -1551,10 +1583,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1563,13 +1595,13 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>6.16</v>
+        <v>6.14</v>
       </c>
       <c r="G24">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H24">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I24">
         <v>8.5</v>
@@ -1580,10 +1612,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1592,15 +1624,131 @@
         <v>12</v>
       </c>
       <c r="F25">
+        <v>5.85</v>
+      </c>
+      <c r="G25">
+        <v>0.02</v>
+      </c>
+      <c r="H25">
+        <v>0.03</v>
+      </c>
+      <c r="I25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>6.13</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="H26">
+        <v>0.05</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>0.04</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>6.16</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="I28">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
         <v>6.03</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>0.04</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>0.05</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>8.5</v>
       </c>
     </row>
